--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>

--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>

--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>

--- a/DataFiles/Module1.xlsx
+++ b/DataFiles/Module1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>
